--- a/2015-2016/clases/informatica_aplicada/clase_6/practica/david_carmona.xlsx
+++ b/2015-2016/clases/informatica_aplicada/clase_6/practica/david_carmona.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15600" windowHeight="10035"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15600" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -15,42 +15,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>LAboratorio 4</author>
-  </authors>
-  <commentList>
-    <comment ref="C13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>LAboratorio 4:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>1.-)</t>
   </si>
@@ -79,9 +45,6 @@
     <t>interes trimestral</t>
   </si>
   <si>
-    <t>valor costará</t>
-  </si>
-  <si>
     <t>3.-)</t>
   </si>
   <si>
@@ -94,33 +57,9 @@
     <t>4.-)</t>
   </si>
   <si>
-    <t xml:space="preserve">interes bimestral </t>
-  </si>
-  <si>
-    <t>nper bimestral</t>
-  </si>
-  <si>
     <t>5.-)</t>
   </si>
   <si>
-    <t xml:space="preserve">interes semestral </t>
-  </si>
-  <si>
-    <t>nperiodo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">periodo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuota </t>
-  </si>
-  <si>
-    <t xml:space="preserve">capitalizacion </t>
-  </si>
-  <si>
-    <t xml:space="preserve">saldo </t>
-  </si>
-  <si>
     <t>6.-)</t>
   </si>
   <si>
@@ -142,23 +81,147 @@
     <t>7.-)</t>
   </si>
   <si>
-    <t>renta</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>debe depositar</t>
+    <t>DATOS</t>
+  </si>
+  <si>
+    <t>INTERES</t>
+  </si>
+  <si>
+    <t>PAGO</t>
+  </si>
+  <si>
+    <t>N.P</t>
+  </si>
+  <si>
+    <t>VALOR TRIMESTRAL</t>
+  </si>
+  <si>
+    <t>V.A</t>
+  </si>
+  <si>
+    <t>V.ACTUAL</t>
+  </si>
+  <si>
+    <t>INVERSION</t>
+  </si>
+  <si>
+    <t>VF</t>
+  </si>
+  <si>
+    <t>renta?</t>
+  </si>
+  <si>
+    <t>debe depositAR</t>
+  </si>
+  <si>
+    <t>9.-)</t>
+  </si>
+  <si>
+    <t>PAGO=</t>
+  </si>
+  <si>
+    <t>NPE=</t>
+  </si>
+  <si>
+    <t>INTERES A</t>
+  </si>
+  <si>
+    <t>INTERESM=</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>CUBRE DE INT=</t>
+  </si>
+  <si>
+    <t>10.-)</t>
+  </si>
+  <si>
+    <t>VF=</t>
+  </si>
+  <si>
+    <t>INTE GEN=</t>
+  </si>
+  <si>
+    <t>T. EFECT=</t>
+  </si>
+  <si>
+    <t>11.-)</t>
+  </si>
+  <si>
+    <t>TASA EF=</t>
+  </si>
+  <si>
+    <t>N.PER=</t>
+  </si>
+  <si>
+    <t>TASA N=</t>
+  </si>
+  <si>
+    <t>12.-)</t>
+  </si>
+  <si>
+    <t>monto</t>
+  </si>
+  <si>
+    <t>Utilizar funcion Pago</t>
+  </si>
+  <si>
+    <t>interes mens.</t>
+  </si>
+  <si>
+    <t>PAGO(i,N,-monto)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>monto_final* interes</t>
+  </si>
+  <si>
+    <t>Cuota - interes</t>
+  </si>
+  <si>
+    <t>Incial - Amort</t>
+  </si>
+  <si>
+    <t>Periodos</t>
+  </si>
+  <si>
+    <t>Inicial</t>
+  </si>
+  <si>
+    <t>Intereses</t>
+  </si>
+  <si>
+    <t>Amort</t>
+  </si>
+  <si>
+    <t>Cuota</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>VA=</t>
+  </si>
+  <si>
+    <t>INTERES A=</t>
+  </si>
+  <si>
+    <t>8.-)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00_);[Red]\(&quot;$&quot;\ #,##0.00\)"/>
+  <numFmts count="4">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00_);[Red]\(&quot;$&quot;\ #,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -169,20 +232,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,8 +295,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -240,40 +334,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -613,11 +759,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,440 +774,1404 @@
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f>C4/12</f>
         <v>1.8333333333333333E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <f>FV(C5,C3,-C2)</f>
         <v>9689.0241596536216</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="7">
+        <v>100000</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="7">
+        <v>6</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="12">
+        <f>PV(B13,B12,-B11)</f>
+        <v>491732.43260053947</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+      <c r="C21" s="13">
+        <v>40000</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="7">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="8">
-        <f>C11/4</f>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="9">
-        <f>FV(C12,C10,-C9)</f>
-        <v>697531.8537600009</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="10">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="C22" s="14">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="12">
-        <f>C16/4</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="10">
-        <f>ISPMT(C17,1,C18,-C15)</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="14">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C23" s="15">
+        <f>C22/4</f>
+        <v>0.09</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C24" s="13">
-        <f>C23/6</f>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="13">
+        <f>ISPMT(C23,1,C24,-C21)</f>
+        <v>3000</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="18">
+        <f>0.48/6</f>
+        <v>0.08</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="18">
+        <v>6</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="19">
+        <f>ISPMT(C29,2,60,-C30)</f>
+        <v>154.66666666666666</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="20"/>
+      <c r="B36" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="22">
+        <f>0.3/12</f>
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="23">
+        <v>20000</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
+      <c r="B38" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="23">
+        <v>5</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="24">
+        <f>FV(D36,C38,-C37)</f>
+        <v>100000</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="13">
-        <f>ISPMT(C24,1,C25,-C22)</f>
-        <v>133.33333333333334</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="C42" s="25">
+        <v>40000</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="25">
+        <v>10</v>
+      </c>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="15">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="16">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15" t="s">
+      <c r="C44" s="27">
+        <v>0.24</v>
+      </c>
+      <c r="D44" s="26"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="15">
-        <f>C30/5</f>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="15"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>20000</v>
-      </c>
-      <c r="D37" s="1">
-        <f>IPMT($C$31,2.5,$C$32,-$C$29)</f>
-        <v>875.94362699804731</v>
-      </c>
-      <c r="E37" s="1">
-        <f>PMT(C31,C32,-C29)</f>
-        <v>4747.9280086237923</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>4</v>
-      </c>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>5</v>
-      </c>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="17">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="18">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="19">
+      <c r="C45" s="28">
         <f xml:space="preserve"> 0.24/12</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="20">
-        <f>-FV(C46,C44,C43)</f>
+      <c r="D45" s="26"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="29">
+        <f>-FV(C45,C43,C42)</f>
         <v>437988.83998951415</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="21" t="s">
+      <c r="D47" s="26"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21" t="s">
+      <c r="C50" s="30"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="30"/>
+      <c r="B51" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C51" s="30">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="21">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="30"/>
+      <c r="B52" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="30">
         <v>80000</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="23">
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="30"/>
+      <c r="B53" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="32">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C55" s="24">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="30"/>
+      <c r="B54" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="33">
         <f>0.3/12</f>
         <v>2.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21" t="s">
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="30"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="30"/>
+      <c r="B56" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="34">
+        <f xml:space="preserve"> -PV(C54,C51,,C52)</f>
+        <v>65659.725665047357</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="41">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="41">
+        <v>2699.38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="41">
+        <f>EFFECT(B60,B59)</f>
+        <v>157021.33809901343</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="40"/>
+      <c r="B63" s="41"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="25">
-        <f xml:space="preserve"> -PV(C55,C52,C53)</f>
-        <v>573610.97339810606</v>
-      </c>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="39">
+        <v>1600</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="39">
+        <v>40</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="39"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" s="39">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="39">
+        <f>B69/12</f>
+        <v>2.3333333333333334E-2</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" s="39">
+        <f>PV(B70,B67,-B66)</f>
+        <v>41315.664137256084</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="39">
+        <f>ISPMT(B70,1,B67,-B71)</f>
+        <v>939.93135912257605</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" s="35">
+        <v>2000</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" s="35">
+        <v>12</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" s="35">
+        <f>B78/12</f>
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" s="35">
+        <f>FV(B79,B77,-B76)</f>
+        <v>27591.105939703804</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" s="35">
+        <f>ISPMT(B79,1,B77,-B76)</f>
+        <v>45.833333333333336</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B82" s="35">
+        <f>EFFECT(B78,B77)</f>
+        <v>0.34488882424629752</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B86" s="36">
+        <v>0.02</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B87" s="36">
+        <v>36</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="36">
+        <f>NOMINAL(B86,B87)</f>
+        <v>1.9808074740070403E-2</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="36"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B90" s="36">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B91" s="36">
+        <v>28</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B92" s="36">
+        <f>NOMINAL(B90,B91)</f>
+        <v>2.4703503740206578E-2</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96" s="37">
+        <v>20000</v>
+      </c>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B97" s="37">
+        <v>0.08</v>
+      </c>
+      <c r="C97" s="37"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" s="37">
+        <v>12</v>
+      </c>
+      <c r="C98" s="37"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="37"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="37"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="37"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="37"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D100" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E100" s="37"/>
+      <c r="F100" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G100" s="37"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="37"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="37"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B102" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C102" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D102" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E102" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F102" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G102" s="37"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="38">
+        <v>0</v>
+      </c>
+      <c r="B103" s="38"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="38"/>
+      <c r="E103" s="38"/>
+      <c r="F103" s="38">
+        <v>20000</v>
+      </c>
+      <c r="G103" s="38"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="38">
+        <v>1</v>
+      </c>
+      <c r="B104" s="38">
+        <v>20000</v>
+      </c>
+      <c r="C104" s="38">
+        <v>1600.0000000000002</v>
+      </c>
+      <c r="D104" s="38">
+        <v>1053.9003384893913</v>
+      </c>
+      <c r="E104" s="38">
+        <v>2653.9003384893913</v>
+      </c>
+      <c r="F104" s="38">
+        <v>18946.099661510609</v>
+      </c>
+      <c r="G104" s="38"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="38">
+        <v>2</v>
+      </c>
+      <c r="B105" s="38">
+        <v>18946.099661510609</v>
+      </c>
+      <c r="C105" s="38">
+        <v>1515.6879729208488</v>
+      </c>
+      <c r="D105" s="38">
+        <v>1138.2123655685425</v>
+      </c>
+      <c r="E105" s="38">
+        <v>2653.9003384893913</v>
+      </c>
+      <c r="F105" s="38">
+        <v>17807.887295942066</v>
+      </c>
+      <c r="G105" s="38"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="38">
+        <v>3</v>
+      </c>
+      <c r="B106" s="38">
+        <v>17807.887295942066</v>
+      </c>
+      <c r="C106" s="38">
+        <v>1424.6309836753653</v>
+      </c>
+      <c r="D106" s="38">
+        <v>1229.269354814026</v>
+      </c>
+      <c r="E106" s="38">
+        <v>2653.9003384893913</v>
+      </c>
+      <c r="F106" s="38">
+        <v>16578.617941128039</v>
+      </c>
+      <c r="G106" s="38"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="38">
+        <v>4</v>
+      </c>
+      <c r="B107" s="38">
+        <v>16578.617941128039</v>
+      </c>
+      <c r="C107" s="38">
+        <v>1326.2894352902435</v>
+      </c>
+      <c r="D107" s="38">
+        <v>1327.610903199148</v>
+      </c>
+      <c r="E107" s="38">
+        <v>2653.9003384893913</v>
+      </c>
+      <c r="F107" s="38">
+        <v>15251.007037928892</v>
+      </c>
+      <c r="G107" s="38"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="38">
+        <v>5</v>
+      </c>
+      <c r="B108" s="38">
+        <v>15251.007037928892</v>
+      </c>
+      <c r="C108" s="38">
+        <v>1220.0805630343114</v>
+      </c>
+      <c r="D108" s="38">
+        <v>1433.8197754550799</v>
+      </c>
+      <c r="E108" s="38">
+        <v>2653.9003384893913</v>
+      </c>
+      <c r="F108" s="38">
+        <v>13817.187262473812</v>
+      </c>
+      <c r="G108" s="38"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="38">
+        <v>6</v>
+      </c>
+      <c r="B109" s="38">
+        <v>13817.187262473812</v>
+      </c>
+      <c r="C109" s="38">
+        <v>1105.3749809979049</v>
+      </c>
+      <c r="D109" s="38">
+        <v>1548.5253574914864</v>
+      </c>
+      <c r="E109" s="38">
+        <v>2653.9003384893913</v>
+      </c>
+      <c r="F109" s="38">
+        <v>12268.661904982326</v>
+      </c>
+      <c r="G109" s="38"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="38">
+        <v>7</v>
+      </c>
+      <c r="B110" s="38">
+        <v>12268.661904982326</v>
+      </c>
+      <c r="C110" s="38">
+        <v>981.49295239858611</v>
+      </c>
+      <c r="D110" s="38">
+        <v>1672.4073860908052</v>
+      </c>
+      <c r="E110" s="38">
+        <v>2653.9003384893913</v>
+      </c>
+      <c r="F110" s="38">
+        <v>10596.254518891521</v>
+      </c>
+      <c r="G110" s="38"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="38">
+        <v>8</v>
+      </c>
+      <c r="B111" s="38">
+        <v>10596.254518891521</v>
+      </c>
+      <c r="C111" s="38">
+        <v>847.70036151132172</v>
+      </c>
+      <c r="D111" s="38">
+        <v>1806.1999769780696</v>
+      </c>
+      <c r="E111" s="38">
+        <v>2653.9003384893913</v>
+      </c>
+      <c r="F111" s="38">
+        <v>8790.0545419134505</v>
+      </c>
+      <c r="G111" s="38"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="38">
+        <v>9</v>
+      </c>
+      <c r="B112" s="38">
+        <v>8790.0545419134505</v>
+      </c>
+      <c r="C112" s="38">
+        <v>703.20436335307602</v>
+      </c>
+      <c r="D112" s="38">
+        <v>1950.6959751363152</v>
+      </c>
+      <c r="E112" s="38">
+        <v>2653.9003384893913</v>
+      </c>
+      <c r="F112" s="38">
+        <v>6839.3585667771349</v>
+      </c>
+      <c r="G112" s="38"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="38">
+        <v>10</v>
+      </c>
+      <c r="B113" s="38">
+        <v>6839.3585667771349</v>
+      </c>
+      <c r="C113" s="38">
+        <v>547.14868534217089</v>
+      </c>
+      <c r="D113" s="38">
+        <v>2106.7516531472202</v>
+      </c>
+      <c r="E113" s="38">
+        <v>2653.9003384893913</v>
+      </c>
+      <c r="F113" s="38">
+        <v>4732.6069136299147</v>
+      </c>
+      <c r="G113" s="38"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="38">
+        <v>11</v>
+      </c>
+      <c r="B114" s="38">
+        <v>4732.6069136299147</v>
+      </c>
+      <c r="C114" s="38">
+        <v>378.60855309039329</v>
+      </c>
+      <c r="D114" s="38">
+        <v>2275.2917853989979</v>
+      </c>
+      <c r="E114" s="38">
+        <v>2653.9003384893913</v>
+      </c>
+      <c r="F114" s="38">
+        <v>2457.3151282309168</v>
+      </c>
+      <c r="G114" s="38"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="38">
+        <v>12</v>
+      </c>
+      <c r="B115" s="38">
+        <v>2457.3151282309168</v>
+      </c>
+      <c r="C115" s="38">
+        <v>196.58521025847341</v>
+      </c>
+      <c r="D115" s="38">
+        <v>2457.3151282309177</v>
+      </c>
+      <c r="E115" s="38">
+        <v>2653.9003384893913</v>
+      </c>
+      <c r="F115" s="38">
+        <v>0</v>
+      </c>
+      <c r="G115" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
